--- a/ICHaus/doc/ICHaus_BOM_V2.xlsx
+++ b/ICHaus/doc/ICHaus_BOM_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soeren\Documents\GitHub\ICHausInterpolation\ICHaus\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BFC7A3-0471-47E9-BF19-CE6CFB760EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BCA163-C450-4CFB-8B63-54B985B2DEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="840" windowWidth="19785" windowHeight="14565" xr2:uid="{BE8BB731-11B6-4F4C-A241-7BE1544A7CD5}"/>
+    <workbookView xWindow="3510" yWindow="1635" windowWidth="19725" windowHeight="14565" xr2:uid="{BE8BB731-11B6-4F4C-A241-7BE1544A7CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>Spalte1</t>
-  </si>
-  <si>
     <t>C49678</t>
   </si>
   <si>
@@ -183,13 +180,16 @@
   </si>
   <si>
     <t>U9,U109</t>
+  </si>
+  <si>
+    <t>LCSC Part #</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,16 +197,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -214,16 +514,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -273,7 +763,7 @@
     <tableColumn id="2" xr3:uid="{723C60E0-7BAB-468E-991D-64B1E60FC39A}" uniqueName="2" name=" Quantity" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{B391935C-A9C6-4534-99DC-84A438047F81}" uniqueName="3" name=" Value" queryTableFieldId="3" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{763C7DE8-E8AA-401E-9035-16A658FFABD0}" uniqueName="4" name="Footprint" queryTableFieldId="4" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{54F839D1-528C-4B59-B018-ED1F4C1D4E62}" uniqueName="5" name="Spalte1" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{54F839D1-528C-4B59-B018-ED1F4C1D4E62}" uniqueName="5" name="LCSC Part #" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -578,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE4C09B-3D0E-4279-944F-EE3A475E7846}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,13 +1093,13 @@
       <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
+      <c r="E1" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -621,12 +1111,12 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -638,12 +1128,12 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -655,12 +1145,12 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -672,29 +1162,29 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -706,12 +1196,12 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -723,12 +1213,12 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -740,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -760,7 +1250,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -772,12 +1262,12 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -789,12 +1279,12 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -806,7 +1296,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
